--- a/게임 기획파일/만약 내가 삼국지 장수라면 시스템기획_201016_ver.0.1.xlsx
+++ b/게임 기획파일/만약 내가 삼국지 장수라면 시스템기획_201016_ver.0.1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\게임 기획파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2751AB-8AB1-4CF5-AE36-C110070A9811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="390" windowWidth="17205" windowHeight="14670" tabRatio="599" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="390" windowWidth="17205" windowHeight="14670" tabRatio="599" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="전체 시스템" sheetId="1" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <sheet name="보스 도감 시스템" sheetId="16" r:id="rId19"/>
     <sheet name="보스 도감 DB" sheetId="17" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,12 +383,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A6AAF7F8-642D-4327-B424-D6B9D16C073C}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -473,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{CD64DEAE-ED12-424B-95DE-2F555B7F8215}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -538,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EF9C0396-4E44-4DB1-80C4-4EB0E5DCC72C}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -645,12 +644,12 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000004000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -808,7 +807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000005000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -859,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -921,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1022,12 +1021,12 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000002000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1142,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1208,12 +1207,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1452,7 +1451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1513,7 +1512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1592,7 +1591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1676,12 +1675,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1750,7 +1749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1939,7 +1938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2054,7 +2053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2174,12 +2173,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2245,12 +2244,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000D000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2356,7 +2355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000C000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2532,7 +2531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000B000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2593,7 +2592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2636,7 +2635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2679,7 +2678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2722,7 +2721,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000004000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2765,7 +2764,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000005000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2808,7 +2807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000006000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2851,7 +2850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000007000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2894,7 +2893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000008000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2937,7 +2936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000009000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2980,7 +2979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00000A000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3028,12 +3027,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3193,7 +3192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3272,7 +3271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3338,12 +3337,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3404,7 +3403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3483,7 +3482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3544,7 +3543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3628,12 +3627,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000006000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3731,7 +3730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000005000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3792,7 +3791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3853,7 +3852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000004000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -3968,7 +3967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4119,7 +4118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4167,12 +4166,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>고지완</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3E007FC7-CB9D-46B8-9851-77EC438823DB}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4220,7 +4219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="539">
   <si>
     <t>1000나유타</t>
   </si>
@@ -6782,11 +6781,29 @@
     <t>지식 획득 공식</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>treasure_1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(증가값*레벨)*보물의 퍼센테이지 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>+(증가값*레벨)</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
@@ -7501,7 +7518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -7844,6 +7861,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7931,6 +7954,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7957,33 +8007,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8075,11 +8098,11 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8152,6 +8175,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9854,7 +9878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF2F5597"/>
   </sheetPr>
@@ -9881,28 +9905,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
@@ -9919,14 +9943,14 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="127" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="126"/>
+      <c r="C6" s="128"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
@@ -9945,16 +9969,16 @@
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="127" t="s">
         <v>301</v>
       </c>
-      <c r="E12" s="126"/>
+      <c r="E12" s="128"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="130"/>
       <c r="F13" s="12"/>
       <c r="G13" s="23"/>
     </row>
@@ -9977,7 +10001,7 @@
     <row r="15" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="23"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="115" t="s">
+      <c r="H15" s="117" t="s">
         <v>356</v>
       </c>
       <c r="I15" s="61" t="s">
@@ -9994,11 +10018,11 @@
       <c r="B16" s="8"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="118" t="s">
+      <c r="H16" s="117"/>
+      <c r="I16" s="120" t="s">
         <v>378</v>
       </c>
-      <c r="J16" s="120" t="s">
+      <c r="J16" s="122" t="s">
         <v>43</v>
       </c>
       <c r="K16" s="24" t="s">
@@ -10009,15 +10033,15 @@
       <c r="B17" s="8"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="121"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="123"/>
       <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="115"/>
+      <c r="H18" s="117"/>
       <c r="I18" s="61" t="s">
         <v>305</v>
       </c>
@@ -10028,7 +10052,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
-      <c r="H19" s="115"/>
+      <c r="H19" s="117"/>
       <c r="I19" s="92" t="s">
         <v>238</v>
       </c>
@@ -10062,16 +10086,16 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="126"/>
+      <c r="E26" s="128"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C27" s="12"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="130"/>
       <c r="F27" s="12"/>
       <c r="G27" s="23"/>
     </row>
@@ -10094,7 +10118,7 @@
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F29" s="4"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="124" t="s">
         <v>403</v>
       </c>
       <c r="I29" s="24" t="s">
@@ -10110,7 +10134,7 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="123"/>
+      <c r="H30" s="125"/>
       <c r="I30" s="24" t="s">
         <v>352</v>
       </c>
@@ -10123,7 +10147,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G31" s="4"/>
-      <c r="H31" s="123"/>
+      <c r="H31" s="125"/>
       <c r="I31" s="24" t="s">
         <v>347</v>
       </c>
@@ -10136,7 +10160,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G32" s="4"/>
-      <c r="H32" s="123"/>
+      <c r="H32" s="125"/>
       <c r="I32" s="24" t="s">
         <v>405</v>
       </c>
@@ -10148,7 +10172,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="H33" s="124"/>
+      <c r="H33" s="126"/>
       <c r="I33" s="92" t="s">
         <v>358</v>
       </c>
@@ -10164,28 +10188,28 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="37"/>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="118" t="s">
         <v>308</v>
       </c>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="117"/>
-      <c r="P35" s="117"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="117"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="119"/>
+      <c r="S35" s="119"/>
+      <c r="T35" s="119"/>
+      <c r="U35" s="119"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B37" s="78" t="s">
@@ -10396,16 +10420,16 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="114"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="114"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -10427,14 +10451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
   <dimension ref="B2:AJ28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:L27"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10446,206 +10470,206 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="165"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="167"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="167"/>
-      <c r="V3" s="167"/>
-      <c r="W3" s="167"/>
-      <c r="X3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="169"/>
+      <c r="Q3" s="169"/>
+      <c r="R3" s="169"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="169"/>
+      <c r="U3" s="169"/>
+      <c r="V3" s="169"/>
+      <c r="W3" s="169"/>
+      <c r="X3" s="170"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="167"/>
-      <c r="P4" s="167"/>
-      <c r="Q4" s="167"/>
-      <c r="R4" s="167"/>
-      <c r="S4" s="167"/>
-      <c r="T4" s="167"/>
-      <c r="U4" s="167"/>
-      <c r="V4" s="167"/>
-      <c r="W4" s="167"/>
-      <c r="X4" s="168"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="169"/>
+      <c r="R4" s="169"/>
+      <c r="S4" s="169"/>
+      <c r="T4" s="169"/>
+      <c r="U4" s="169"/>
+      <c r="V4" s="169"/>
+      <c r="W4" s="169"/>
+      <c r="X4" s="170"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="167"/>
-      <c r="P5" s="167"/>
-      <c r="Q5" s="167"/>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="168"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="169"/>
+      <c r="N5" s="169"/>
+      <c r="O5" s="169"/>
+      <c r="P5" s="169"/>
+      <c r="Q5" s="169"/>
+      <c r="R5" s="169"/>
+      <c r="S5" s="169"/>
+      <c r="T5" s="169"/>
+      <c r="U5" s="169"/>
+      <c r="V5" s="169"/>
+      <c r="W5" s="169"/>
+      <c r="X5" s="170"/>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="166"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="168"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="169"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="169"/>
+      <c r="P6" s="169"/>
+      <c r="Q6" s="169"/>
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="170"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="167"/>
-      <c r="V7" s="167"/>
-      <c r="W7" s="167"/>
-      <c r="X7" s="168"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="169"/>
+      <c r="S7" s="169"/>
+      <c r="T7" s="169"/>
+      <c r="U7" s="169"/>
+      <c r="V7" s="169"/>
+      <c r="W7" s="169"/>
+      <c r="X7" s="170"/>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="166"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167"/>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="167"/>
-      <c r="X8" s="168"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="169"/>
+      <c r="V8" s="169"/>
+      <c r="W8" s="169"/>
+      <c r="X8" s="170"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="169"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-      <c r="V9" s="170"/>
-      <c r="W9" s="170"/>
-      <c r="X9" s="171"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="172"/>
+      <c r="V9" s="172"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="173"/>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
@@ -10653,19 +10677,19 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="174" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B15" s="90" t="s">
@@ -10883,12 +10907,12 @@
         <v>2207.990952274447</v>
       </c>
       <c r="M19" s="40"/>
-      <c r="Z19" s="173" t="s">
+      <c r="Z19" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="175"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="177"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B20" s="50">
@@ -10935,12 +10959,12 @@
         <v>3954.1755108681573</v>
       </c>
       <c r="M20" s="40"/>
-      <c r="Z20" s="176">
+      <c r="Z20" s="178">
         <v>1.5</v>
       </c>
-      <c r="AA20" s="177"/>
-      <c r="AB20" s="177"/>
-      <c r="AC20" s="178"/>
+      <c r="AA20" s="179"/>
+      <c r="AB20" s="179"/>
+      <c r="AC20" s="180"/>
     </row>
     <row r="21" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B21" s="50">
@@ -11213,21 +11237,21 @@
       <c r="B27" s="91" t="s">
         <v>326</v>
       </c>
-      <c r="C27" s="179" t="s">
+      <c r="C27" s="181" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="181">
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="183">
         <f>SUM(C16:L26)</f>
         <v>1358316.9268923493</v>
       </c>
-      <c r="H27" s="181"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.3">
       <c r="AJ28" s="2" t="s">
@@ -11251,14 +11275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:S111"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11923,14 +11947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11975,8 +11999,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>152</v>
+      <c r="A2" s="193" t="s">
+        <v>537</v>
       </c>
       <c r="B2" s="45" t="s">
         <v>342</v>
@@ -12215,14 +12239,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F17" sqref="F2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12689,14 +12713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B332C9D-1111-4253-852D-362AE47E8E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.25" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12706,78 +12730,78 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="182" t="s">
+      <c r="B2" s="184" t="s">
         <v>466</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="187"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="188"/>
+      <c r="I3" s="188"/>
+      <c r="J3" s="188"/>
+      <c r="K3" s="189"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="185"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="187"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="188"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="188"/>
+      <c r="J4" s="188"/>
+      <c r="K4" s="189"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="185"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="187"/>
+      <c r="B5" s="187"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="189"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="185"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="186"/>
-      <c r="I6" s="186"/>
-      <c r="J6" s="186"/>
-      <c r="K6" s="187"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="189"/>
     </row>
     <row r="7" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="188"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="190"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="191"/>
+      <c r="K7" s="192"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="106"/>
@@ -12825,14 +12849,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6AFBA8-C410-491D-9014-6DB1DA00C5C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12974,14 +12998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738D788F-60B7-4EF7-88AF-01BB01E2758A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13008,10 +13032,10 @@
       <c r="D1" s="112" t="s">
         <v>523</v>
       </c>
-      <c r="E1" s="191" t="s">
+      <c r="E1" s="114" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="192" t="s">
+      <c r="F1" s="115" t="s">
         <v>524</v>
       </c>
     </row>
@@ -13223,13 +13247,13 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
   <dimension ref="B2:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -13239,252 +13263,252 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="131" t="s">
         <v>535</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="133"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="135"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="136"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="136"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="136"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="136"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-      <c r="O8" s="133"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="133"/>
-      <c r="R8" s="133"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="136"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="132"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="136"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="132"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-      <c r="R10" s="133"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="136"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="132"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="133"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="136"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="135"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="137"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="138"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="138"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="139"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="174" t="s">
         <v>536</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B16" s="90" t="s">
@@ -14026,7 +14050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
@@ -14396,7 +14420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -14412,76 +14436,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="133"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="136"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="136"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="135"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="139"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
@@ -14539,13 +14563,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -14576,145 +14600,145 @@
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="131" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="131"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="134"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="132"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="136"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="136"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="136"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="136"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="136"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="136"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
-      <c r="B11" s="135"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="137"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -14763,24 +14787,24 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
       <c r="M15" s="4"/>
-      <c r="U15" s="140" t="s">
+      <c r="U15" s="142" t="s">
         <v>131</v>
       </c>
-      <c r="V15" s="141"/>
+      <c r="V15" s="143"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -14816,10 +14840,10 @@
         <v>9</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="U16" s="138">
+      <c r="U16" s="140">
         <v>1.1200000000000001</v>
       </c>
-      <c r="V16" s="139"/>
+      <c r="V16" s="141"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
@@ -15297,7 +15321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
@@ -15597,14 +15621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16071,14 +16095,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16659,16 +16683,24 @@
         <v>329</v>
       </c>
     </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="194" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F25" s="194"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -16696,36 +16728,36 @@
       <c r="H1" s="64"/>
     </row>
     <row r="2" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="146"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="159"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="148"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="159"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="151"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="162"/>
       <c r="G5" s="64"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
@@ -16741,7 +16773,7 @@
       <c r="F8" s="64"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="156" t="s">
+      <c r="B9" s="147" t="s">
         <v>380</v>
       </c>
       <c r="C9" s="73" t="s">
@@ -16758,82 +16790,82 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="156"/>
-      <c r="C10" s="152" t="s">
+      <c r="B10" s="147"/>
+      <c r="C10" s="151" t="s">
         <v>416</v>
       </c>
       <c r="D10" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="E10" s="153" t="s">
+      <c r="E10" s="150" t="s">
         <v>395</v>
       </c>
-      <c r="F10" s="154" t="s">
+      <c r="F10" s="145" t="s">
         <v>210</v>
       </c>
       <c r="G10" s="64"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
-      <c r="C11" s="152"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="E11" s="153"/>
-      <c r="F11" s="155"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="146"/>
       <c r="G11" s="64"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="156"/>
-      <c r="C12" s="152" t="s">
+      <c r="B12" s="147"/>
+      <c r="C12" s="151" t="s">
         <v>441</v>
       </c>
       <c r="D12" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="150" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="154" t="s">
+      <c r="F12" s="145" t="s">
         <v>214</v>
       </c>
       <c r="G12" s="64"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="156"/>
-      <c r="C13" s="152"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="151"/>
       <c r="D13" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="153"/>
-      <c r="F13" s="155"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="146"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="156"/>
-      <c r="C14" s="152" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="151" t="s">
         <v>378</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="153" t="s">
+      <c r="E14" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="154" t="s">
+      <c r="F14" s="145" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="156"/>
-      <c r="C15" s="152"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="151"/>
       <c r="D15" s="75" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="153"/>
-      <c r="F15" s="155"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="146"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="147" t="s">
         <v>230</v>
       </c>
       <c r="C16" s="73" t="s">
@@ -16842,36 +16874,36 @@
       <c r="D16" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="152" t="s">
         <v>398</v>
       </c>
-      <c r="F16" s="160"/>
+      <c r="F16" s="153"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="156"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="72" t="s">
         <v>395</v>
       </c>
       <c r="D17" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="E17" s="157" t="s">
+      <c r="E17" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="158"/>
+      <c r="F17" s="149"/>
     </row>
     <row r="18" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="156"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="72" t="s">
         <v>423</v>
       </c>
       <c r="D18" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="E18" s="157" t="s">
+      <c r="E18" s="148" t="s">
         <v>207</v>
       </c>
-      <c r="F18" s="158"/>
+      <c r="F18" s="149"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="Q19" s="71"/>
@@ -16944,6 +16976,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B9:B15"/>
@@ -16954,11 +16991,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -16967,7 +16999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
@@ -19115,7 +19147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FFF8CBAC"/>
   </sheetPr>
@@ -19136,174 +19168,174 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="165"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="167"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="166"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="170"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="166"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167"/>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="168"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="170"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="166"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="168"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="169"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="169"/>
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="169"/>
+      <c r="L5" s="169"/>
+      <c r="M5" s="170"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="166"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="168"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="169"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="169"/>
+      <c r="H6" s="169"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="169"/>
+      <c r="L6" s="169"/>
+      <c r="M6" s="170"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="168"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="170"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="166"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="168"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="169"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="170"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="166"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="168"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="169"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="169"/>
+      <c r="M9" s="170"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="168"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="170"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="166"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="168"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="170"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="168"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="170"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="169"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="171"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="173"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
@@ -19312,20 +19344,20 @@
       <c r="D16" s="6"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="172" t="s">
+      <c r="B18" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
-      <c r="M18" s="172"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="50" t="s">
@@ -19703,34 +19735,34 @@
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
+      <c r="M28" s="163"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="152" t="s">
+      <c r="B30" s="151" t="s">
         <v>130</v>
       </c>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="50" t="s">
@@ -20148,18 +20180,18 @@
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
-      <c r="E41" s="162"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="162"/>
-      <c r="K41" s="162"/>
-      <c r="L41" s="162"/>
-      <c r="M41" s="162"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="164"/>
+      <c r="F41" s="164"/>
+      <c r="G41" s="164"/>
+      <c r="H41" s="164"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="164"/>
+      <c r="L41" s="164"/>
+      <c r="M41" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20176,7 +20208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
@@ -21272,7 +21304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9">
     <tabColor rgb="FFFFD966"/>
   </sheetPr>
